--- a/3. Design/BOM_rui.xlsx
+++ b/3. Design/BOM_rui.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>Description</t>
   </si>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1666,9 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G27" s="25"/>
+      <c r="G27" s="24" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
@@ -1712,7 +1714,9 @@
         <f t="shared" si="0"/>
         <v>49.800000000000004</v>
       </c>
-      <c r="G29" s="25"/>
+      <c r="G29" s="24" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
@@ -1802,7 +1806,9 @@
         <f t="shared" si="0"/>
         <v>3.05</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="24" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
